--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="52">
   <si>
     <t>Testers</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>3.Enter a valid domain name and press ok</t>
+  </si>
+  <si>
+    <t>Valentin</t>
   </si>
 </sst>
 </file>
@@ -672,7 +675,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -685,8 +688,8 @@
   </sheetPr>
   <dimension ref="A2:I548"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -716,7 +719,9 @@
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="4"/>
       <c r="G3" s="7" t="s">
